--- a/cypress/fixtures/Employee/New Employee.xlsx
+++ b/cypress/fixtures/Employee/New Employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9795" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="New Employee" sheetId="1" r:id="rId1"/>
@@ -179,142 +179,142 @@
     <t>Metro</t>
   </si>
   <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>06/07/2031</t>
+  </si>
+  <si>
+    <t>ASDFA5</t>
+  </si>
+  <si>
+    <t>9876543299</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Panvel</t>
+  </si>
+  <si>
+    <t>124354ERT488</t>
+  </si>
+  <si>
+    <t>ABCDE1239L</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>06/06/2040</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Account Transfer</t>
+  </si>
+  <si>
+    <t>Old Regime</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Avhad</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>23/05/1996</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>06/06/2020</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>06/06/2030</t>
+  </si>
+  <si>
+    <t>ASDFE8</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Thane</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>124354ERT459</t>
+  </si>
+  <si>
+    <t>ABCDE1234E</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BOI</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>New Regime</t>
   </si>
   <si>
     <t>Manager</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>06/07/2020</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>06/07/2031</t>
-  </si>
-  <si>
-    <t>ASDFA5</t>
-  </si>
-  <si>
-    <t>9876543299</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Panvel</t>
-  </si>
-  <si>
-    <t>124354ERT488</t>
-  </si>
-  <si>
-    <t>ABCDE1239L</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>06/08/2020</t>
-  </si>
-  <si>
-    <t>06/06/2040</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>Account Transfer</t>
-  </si>
-  <si>
-    <t>Old Regime</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>Avhad</t>
-  </si>
-  <si>
-    <t>Rajendra</t>
-  </si>
-  <si>
-    <t>23/05/1996</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>06/06/2020</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>06/06/2030</t>
-  </si>
-  <si>
-    <t>ASDFE8</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>124354ERT459</t>
-  </si>
-  <si>
-    <t>ABCDE1234E</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BOI</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>New Regime</t>
   </si>
   <si>
     <t>EmployeeCode</t>
@@ -343,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -382,6 +382,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -391,6 +399,82 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,11 +488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,16 +505,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,88 +519,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -553,181 +553,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +738,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -758,11 +791,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,57 +830,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,148 +843,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1535,7 +1535,7 @@
       <c r="O2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -1655,49 +1655,49 @@
         <v>54</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="R3" s="6">
         <v>6</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>68</v>
@@ -1706,34 +1706,34 @@
         <v>69</v>
       </c>
       <c r="AG3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="16:16">
@@ -1756,7 +1756,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1804,10 +1804,10 @@
         <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/Employee/New Employee.xlsx
+++ b/cypress/fixtures/Employee/New Employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9795"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="New Employee" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t>EmpID</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -143,180 +140,186 @@
     <t>Selfservicerole</t>
   </si>
   <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>23/05/1995</t>
+  </si>
+  <si>
+    <t>15/10/2022</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>06/07/2031</t>
+  </si>
+  <si>
+    <t>ASDFA5</t>
+  </si>
+  <si>
+    <t>9876543299</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Panvel</t>
+  </si>
+  <si>
+    <t>124354ERT488</t>
+  </si>
+  <si>
+    <t>ABCDE1239L</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>06/06/2040</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Account Transfer</t>
+  </si>
+  <si>
+    <t>Old Regime</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>LeaveData</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>23/05/1996</t>
+  </si>
+  <si>
+    <t>23/05/2022</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>06/06/2020</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>06/06/2030</t>
+  </si>
+  <si>
+    <t>ASDFE8</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>124354ERT459</t>
+  </si>
+  <si>
+    <t>ABCDE1234E</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BOI</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>New Regime</t>
+  </si>
+  <si>
     <t>Z1</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Devang</t>
   </si>
   <si>
     <t>David</t>
   </si>
   <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>23/05/1995</t>
-  </si>
-  <si>
-    <t>23/05/2022</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>06/07/2020</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>06/07/2031</t>
-  </si>
-  <si>
-    <t>ASDFA5</t>
-  </si>
-  <si>
-    <t>9876543299</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Panvel</t>
-  </si>
-  <si>
-    <t>124354ERT488</t>
-  </si>
-  <si>
-    <t>ABCDE1239L</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>06/08/2020</t>
-  </si>
-  <si>
-    <t>06/06/2040</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>Account Transfer</t>
-  </si>
-  <si>
-    <t>Old Regime</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Z2</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Akash</t>
   </si>
   <si>
     <t>Avhad</t>
   </si>
   <si>
-    <t>Rajendra</t>
-  </si>
-  <si>
-    <t>23/05/1996</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>06/06/2020</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>06/06/2030</t>
-  </si>
-  <si>
-    <t>ASDFE8</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Thane</t>
-  </si>
-  <si>
-    <t>124354ERT459</t>
-  </si>
-  <si>
-    <t>ABCDE1234E</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BOI</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>New Regime</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>EmployeeCode</t>
   </si>
   <si>
@@ -335,7 +338,7 @@
     <t>ApprovedCancelRights</t>
   </si>
   <si>
-    <t>Leave</t>
+    <t>OnDuty</t>
   </si>
 </sst>
 </file>
@@ -343,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -382,6 +385,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -390,59 +437,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,11 +484,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,33 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,20 +528,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -547,187 +550,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,26 +744,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,7 +763,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +787,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -813,28 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,148 +846,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,48 +1326,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="2" width="11.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.42857142857143" style="6" customWidth="1"/>
-    <col min="5" max="14" width="12.5714285714286" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.4285714285714" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.2857142857143" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.7142857142857" style="6" customWidth="1"/>
-    <col min="18" max="18" width="27.7142857142857" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18" style="6" customWidth="1"/>
-    <col min="20" max="20" width="19" style="6" customWidth="1"/>
-    <col min="21" max="21" width="15.2857142857143" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.8571428571429" style="6" customWidth="1"/>
-    <col min="23" max="23" width="13.5714285714286" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11.7142857142857" style="6" customWidth="1"/>
-    <col min="25" max="25" width="6.57142857142857" style="6" customWidth="1"/>
-    <col min="26" max="26" width="14" style="6" customWidth="1"/>
-    <col min="27" max="27" width="11.2857142857143" style="6" customWidth="1"/>
-    <col min="28" max="28" width="7.57142857142857" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.1428571428571" style="6" customWidth="1"/>
-    <col min="30" max="30" width="16.4285714285714" style="6" customWidth="1"/>
-    <col min="31" max="31" width="20.5714285714286" style="6" customWidth="1"/>
-    <col min="32" max="32" width="20.8571428571429" style="6" customWidth="1"/>
-    <col min="33" max="33" width="13.7142857142857" style="6" customWidth="1"/>
-    <col min="34" max="34" width="16.7142857142857" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17" style="6" customWidth="1"/>
-    <col min="36" max="36" width="11.2857142857143" style="6" customWidth="1"/>
-    <col min="37" max="37" width="8.85714285714286" style="6" customWidth="1"/>
-    <col min="38" max="38" width="17.2857142857143" style="6" customWidth="1"/>
-    <col min="39" max="39" width="13.7142857142857" style="6" customWidth="1"/>
-    <col min="40" max="40" width="15" style="6" customWidth="1"/>
-    <col min="41" max="42" width="16.5714285714286" style="6" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.8571428571429" style="6" customWidth="1"/>
+    <col min="2" max="3" width="7.42857142857143" style="6" customWidth="1"/>
+    <col min="4" max="13" width="12.5714285714286" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.4285714285714" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.2857142857143" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.7142857142857" style="6" customWidth="1"/>
+    <col min="17" max="17" width="27.7142857142857" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19" style="6" customWidth="1"/>
+    <col min="20" max="20" width="15.2857142857143" style="6" customWidth="1"/>
+    <col min="21" max="21" width="18.8571428571429" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.5714285714286" style="6" customWidth="1"/>
+    <col min="23" max="23" width="11.7142857142857" style="6" customWidth="1"/>
+    <col min="24" max="24" width="6.57142857142857" style="6" customWidth="1"/>
+    <col min="25" max="25" width="14" style="6" customWidth="1"/>
+    <col min="26" max="26" width="11.2857142857143" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.57142857142857" style="6" customWidth="1"/>
+    <col min="28" max="28" width="14.1428571428571" style="6" customWidth="1"/>
+    <col min="29" max="29" width="16.4285714285714" style="6" customWidth="1"/>
+    <col min="30" max="30" width="20.5714285714286" style="6" customWidth="1"/>
+    <col min="31" max="31" width="20.8571428571429" style="6" customWidth="1"/>
+    <col min="32" max="32" width="13.7142857142857" style="6" customWidth="1"/>
+    <col min="33" max="33" width="16.7142857142857" style="6" customWidth="1"/>
+    <col min="34" max="34" width="17" style="6" customWidth="1"/>
+    <col min="35" max="35" width="11.2857142857143" style="6" customWidth="1"/>
+    <col min="36" max="36" width="8.85714285714286" style="6" customWidth="1"/>
+    <col min="37" max="37" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="38" max="38" width="13.7142857142857" style="6" customWidth="1"/>
+    <col min="39" max="39" width="15" style="6" customWidth="1"/>
+    <col min="40" max="41" width="16.5714285714286" style="6" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:42">
+    <row r="1" s="5" customFormat="1" spans="1:41">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1407,10 +1410,10 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
@@ -1488,262 +1491,488 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:41">
+      <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:42">
-      <c r="A2" s="6" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:41">
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>6</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:41">
+      <c r="A5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="P5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AA5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AF5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AK5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:42">
-      <c r="A3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="6">
-        <v>6</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>99</v>
-      </c>
+    <row r="6" spans="15:15">
+      <c r="O6" s="8"/>
     </row>
-    <row r="4" spans="16:16">
-      <c r="P4" s="8"/>
-    </row>
-    <row r="6" spans="16:16">
-      <c r="P6" s="8"/>
-    </row>
-    <row r="8" spans="16:16">
-      <c r="P8" s="8"/>
+    <row r="8" spans="15:15">
+      <c r="O8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1754,13 +1983,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
@@ -1772,42 +2001,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12.75" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="12.75" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/Employee/New Employee.xlsx
+++ b/cypress/fixtures/Employee/New Employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>EmpID</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>23/05/1996</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
   </si>
   <si>
     <t>Single</t>
@@ -343,10 +340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -384,7 +381,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,23 +401,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,32 +473,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,37 +496,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -520,7 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,26 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,7 +757,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,9 +779,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,28 +827,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,7 +840,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,139 +855,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1326,7 +1323,7 @@
   <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1640,7 +1637,7 @@
         <v>82</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>51</v>
@@ -1661,43 +1658,43 @@
         <v>56</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3" s="6">
         <v>6</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AB3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>68</v>
@@ -1706,34 +1703,34 @@
         <v>69</v>
       </c>
       <c r="AG3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AL3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="16:16">
@@ -1772,22 +1769,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12.75" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="12.75" spans="1:6">
@@ -1801,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
